--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t xml:space="preserve">id</t>
   </si>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,124 +35,127 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmian Royal Officers' Quarters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルミア王立士官宿舎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pay your tax here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">納税はこちら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palmia_safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmia Public Safety Commission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">パルミア公安局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワァーオー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dagger_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From midnight till dusk, he watches.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">真夜中から宵まで、奴は見張っているぞ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">↓Younger sister  ↑Other woman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">↓妹　↑他の女</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In honor of the sacrifices of Odina, the Goddess of Compassion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">慈愛の女神オディナの犠牲を讃えて</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casino_closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The park is temporarily closed due to snail rebellion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かたつむりの反乱により現在休園中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vernis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pioneers Wanted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">開拓者募集中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">farm_chest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put'em here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たくさん入れてね</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotspring_meditation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot spring meditation will warm you from the inside out!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">温泉で瞑想すれば、心も体もほっこり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 14.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 19.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 21.6</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.27 fix 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmian Royal Officers' Quarters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルミア王立士官宿舎</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pay your tax here</t>
-  </si>
-  <si>
-    <t xml:space="preserve">納税はこちら</t>
-  </si>
-  <si>
-    <t xml:space="preserve">palmia_safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmia Public Safety Commission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">パルミア公安局</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ワァーオー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dagger_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">From midnight till dusk, he watches.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">真夜中から宵まで、奴は見張っているぞ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">↓Younger sister  ↑Other woman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">↓妹　↑他の女</t>
-  </si>
-  <si>
-    <t xml:space="preserve">odina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In honor of the sacrifices of Odina, the Goddess of Compassion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">慈愛の女神オディナの犠牲を讃えて</t>
-  </si>
-  <si>
-    <t xml:space="preserve">casino_closed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The park is temporarily closed due to snail rebellion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">かたつむりの反乱により現在休園中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vernis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pioneers Wanted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">開拓者募集中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farm_chest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put'em here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">たくさん入れてね</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hotspring_meditation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hot spring meditation will warm you from the inside out!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">温泉で瞑想すれば、心も体もほっこり</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 19.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.6</t>
   </si>
   <si>
     <t xml:space="preserve">팔미아 왕립 사관 합숙소</t>
@@ -282,7 +285,7 @@
         <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -299,7 +302,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -316,7 +319,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -333,7 +336,7 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -350,7 +353,7 @@
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -367,7 +370,7 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -384,7 +387,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -401,7 +404,7 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -418,7 +421,7 @@
         <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -435,7 +438,7 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -449,7 +452,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.28</t>
+    <t xml:space="preserve">EA 23.29</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.29</t>
+    <t xml:space="preserve">EA 23.30</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.30</t>
+    <t xml:space="preserve">EA 23.32</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.32</t>
+    <t xml:space="preserve">EA 23.33</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.33</t>
+    <t xml:space="preserve">EA 23.34 fix 3</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.34 fix 3</t>
+    <t xml:space="preserve">EA 23.35 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.35 fix 1</t>
+    <t xml:space="preserve">EA 23.36</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.36</t>
+    <t xml:space="preserve">EA 23.37</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.37</t>
+    <t xml:space="preserve">EA 23.38</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38</t>
+    <t xml:space="preserve">EA 23.38 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.38 fix 1</t>
+    <t xml:space="preserve">EA 23.39</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.39</t>
+    <t xml:space="preserve">EA 23.40 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.40 fix 1</t>
+    <t xml:space="preserve">EA 23.41</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.41</t>
+    <t xml:space="preserve">EA 23.42</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.42</t>
+    <t xml:space="preserve">EA 23.44 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.44 fix 1</t>
+    <t xml:space="preserve">EA 23.45</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.45</t>
+    <t xml:space="preserve">EA 23.46</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.46</t>
+    <t xml:space="preserve">EA 23.54</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.54</t>
+    <t xml:space="preserve">EA 23.55 fix 2</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.55 fix 2</t>
+    <t xml:space="preserve">EA 23.61 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.61 fix 1</t>
+    <t xml:space="preserve">EA 23.65</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.65</t>
+    <t xml:space="preserve">EA 23.66 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.66 fix 1</t>
+    <t xml:space="preserve">EA 23.67</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.67</t>
+    <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.74</t>
+    <t xml:space="preserve">EA 23.75 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.75 fix 1</t>
+    <t xml:space="preserve">EA 23.81 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.81 Patch 1</t>
+    <t xml:space="preserve">EA 23.82 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.82 Patch 1</t>
+    <t xml:space="preserve">EA 23.92 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.92 Patch 2</t>
+    <t xml:space="preserve">EA 23.99 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.99 Patch 1</t>
+    <t xml:space="preserve">EA 23.108</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.108</t>
+    <t xml:space="preserve">EA 23.109 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.109 Patch 2</t>
+    <t xml:space="preserve">EA 23.120</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.140</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.140</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.170</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.170</t>
+    <t xml:space="preserve">EA 23.173 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.173 Patch 1</t>
+    <t xml:space="preserve">EA 23.187</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.187</t>
+    <t xml:space="preserve">EA 23.188 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.188 Patch 2</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.212</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.212</t>
+    <t xml:space="preserve">EA 23.222</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.222</t>
+    <t xml:space="preserve">EA 23.229 Patch 3</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>

--- a/Mod_Korean/Lang/KR/Game/Note.xlsx
+++ b/Mod_Korean/Lang/KR/Game/Note.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">palmia_barrack</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.229 Patch 3</t>
+    <t xml:space="preserve">EA 23.237 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">Palmian Royal Officers' Quarters</t>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t xml:space="preserve">温泉で瞑想すれば、心も体もほっこり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pond_carp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Carp Pond </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鯉の池</t>
   </si>
   <si>
     <t xml:space="preserve">Alpha 11.1</t>
@@ -285,10 +294,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -302,10 +311,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -319,10 +328,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -336,10 +345,10 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -353,10 +362,10 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -370,10 +379,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -387,10 +396,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -404,10 +413,10 @@
         <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -421,10 +430,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -438,10 +447,10 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>34</v>
@@ -455,16 +464,30 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
